--- a/Rain Gauge/Tagoloan/Rain Gauge 2/Raw/TAG Rain Gauge1 210518 to 210530.xlsx
+++ b/Rain Gauge/Tagoloan/Rain Gauge 2/Raw/TAG Rain Gauge1 210518 to 210530.xlsx
@@ -1,1155 +1,1124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr autoCompressPictures="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main GDrive\Programming\Gthub Repo\New First Gen\First_Gen_Tagoloan_CDO\Rain Gauge\Tagoloan\Rain Gauge 2\Raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D2E226-E016-4AA3-BDF7-CD40BBADCCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Station Data Sensor Id 1546480" sheetId="1" r:id="rId3"/>
+    <sheet name="Station Data Sensor Id 1546480" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="377">
-  <si>
-    <t xml:space="preserve">Station Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGEN Tagoloan Gauge Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DailyRain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1546480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rain Gauge 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/18/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/19/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/21/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/23/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/24/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/27/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/28/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/30/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/31/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/31/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/31/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/31/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/31/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/31/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/31/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/31/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/31/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/31/2021 9:59:59 AM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="364">
+  <si>
+    <t>Station Name</t>
+  </si>
+  <si>
+    <t>Sensor Type</t>
+  </si>
+  <si>
+    <t>Sensor Value</t>
+  </si>
+  <si>
+    <t>Sensor ID</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Sensor Label</t>
+  </si>
+  <si>
+    <t>FGEN Tagoloan Gauge Station</t>
+  </si>
+  <si>
+    <t>DailyRain</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1546480</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>5/18/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>Rain Gauge 1</t>
+  </si>
+  <si>
+    <t>5/18/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/18/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/18/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/18/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/18/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/18/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/18/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>5/18/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/18/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.752</t>
+  </si>
+  <si>
+    <t>5/18/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/18/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/18/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/18/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>5/19/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>5/19/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>5/19/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>5/19/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/19/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/19/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/19/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/19/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/19/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/19/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/19/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/19/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/19/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/20/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/20/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/20/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/20/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>5/20/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>5/20/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>5/20/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.888</t>
+  </si>
+  <si>
+    <t>5/20/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>1.048</t>
+  </si>
+  <si>
+    <t>5/20/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>1.072</t>
+  </si>
+  <si>
+    <t>5/20/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/20/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/20/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/20/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/21/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/21/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/21/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>5/21/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/21/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/21/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>1.096</t>
+  </si>
+  <si>
+    <t>5/21/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/21/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/21/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/21/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/21/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/21/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/21/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/22/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/22/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>5/22/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/23/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/23/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/23/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/23/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/23/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/23/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>5/23/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>5/23/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>5/23/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/23/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/23/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/23/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/23/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/24/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/24/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/25/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>5/25/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/25/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/25/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/25/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>5/25/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>5/25/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>5/25/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>5/25/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>5/25/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>5/25/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>5/25/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.448</t>
+  </si>
+  <si>
+    <t>5/25/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>5/25/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>5/26/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>5/26/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>5/26/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/26/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/26/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/26/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/26/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/26/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/26/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/26/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/26/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/26/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/26/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/26/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/26/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/26/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>5/26/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>5/26/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/26/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>5/26/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>5/26/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>5/26/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>5/26/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>5/26/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>5/27/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/27/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/27/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/28/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/28/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/29/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/29/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>5/30/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>5/30/2021 11:59:59 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1163,7 +1132,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1176,23 +1145,333 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="I303" sqref="I303"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1376,7 +1655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1399,7 +1678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1422,7 +1701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1491,7 +1770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +1931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +1954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1698,7 +1977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1721,7 +2000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1744,7 +2023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1767,7 +2046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +2069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +2092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1836,7 +2115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +2138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1882,7 +2161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1905,7 +2184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1928,7 +2207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1951,7 +2230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1974,7 +2253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1997,7 +2276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2020,7 +2299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2043,7 +2322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2089,7 +2368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2112,7 +2391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2135,7 +2414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2158,7 +2437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2181,7 +2460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2227,7 +2506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2250,7 +2529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2273,7 +2552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2296,7 +2575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2319,7 +2598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2342,7 +2621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2365,7 +2644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2388,7 +2667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +2690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2457,7 +2736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2503,7 +2782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2526,7 +2805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2549,7 +2828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2572,7 +2851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2595,7 +2874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2618,7 +2897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2641,7 +2920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2664,7 +2943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2687,7 +2966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2710,7 +2989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +3012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2756,7 +3035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2779,7 +3058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2802,7 +3081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2825,7 +3104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2848,7 +3127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2871,7 +3150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2917,7 +3196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2940,7 +3219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2963,7 +3242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2986,7 +3265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3032,7 +3311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3055,7 +3334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3078,7 +3357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +3380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3124,7 +3403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3147,7 +3426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3170,7 +3449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3193,7 +3472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3216,7 +3495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3239,7 +3518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3262,7 +3541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3285,7 +3564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3308,7 +3587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3331,7 +3610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3354,7 +3633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3377,7 +3656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3400,7 +3679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3423,7 +3702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3446,7 +3725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3469,7 +3748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3492,7 +3771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3515,7 +3794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3538,7 +3817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3561,7 +3840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3584,7 +3863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3607,7 +3886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3630,7 +3909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3653,7 +3932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3676,7 +3955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3699,7 +3978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3722,7 +4001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3745,7 +4024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3768,7 +4047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3791,7 +4070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3814,7 +4093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3837,7 +4116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3860,7 +4139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3883,7 +4162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3906,7 +4185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3929,7 +4208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3952,7 +4231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3975,7 +4254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3998,7 +4277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -4021,7 +4300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -4044,7 +4323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -4067,7 +4346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4090,7 +4369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +4392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4136,7 +4415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4159,7 +4438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -4182,7 +4461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -4205,7 +4484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -4228,7 +4507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4251,7 +4530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4274,7 +4553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -4297,7 +4576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4320,7 +4599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4343,7 +4622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4366,7 +4645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4389,7 +4668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4412,7 +4691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -4435,7 +4714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4458,7 +4737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4481,7 +4760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4504,7 +4783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4527,7 +4806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4550,7 +4829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4573,7 +4852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4596,7 +4875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4619,7 +4898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4642,7 +4921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4665,7 +4944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -4688,7 +4967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4711,7 +4990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -4734,7 +5013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -4757,7 +5036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -4780,7 +5059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -4803,7 +5082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -4826,7 +5105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -4849,7 +5128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -4872,7 +5151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -4895,7 +5174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -4918,7 +5197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -4941,7 +5220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -4964,7 +5243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -4987,7 +5266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -5010,7 +5289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -5033,7 +5312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -5056,7 +5335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -5079,7 +5358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -5102,7 +5381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -5125,7 +5404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -5148,7 +5427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -5171,7 +5450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -5194,7 +5473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -5217,7 +5496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -5240,7 +5519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -5263,7 +5542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -5286,7 +5565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -5309,7 +5588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -5332,7 +5611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -5355,7 +5634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -5378,7 +5657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -5401,7 +5680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -5424,7 +5703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -5447,7 +5726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -5470,7 +5749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -5493,7 +5772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -5516,7 +5795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5539,7 +5818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -5562,7 +5841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -5585,7 +5864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -5608,7 +5887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -5631,7 +5910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -5654,7 +5933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -5677,7 +5956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -5700,7 +5979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -5723,7 +6002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -5746,7 +6025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -5769,7 +6048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -5792,7 +6071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -5815,7 +6094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -5838,7 +6117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -5861,7 +6140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -5884,7 +6163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5907,7 +6186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -5930,7 +6209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -5953,7 +6232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -5976,7 +6255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -5999,7 +6278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -6022,7 +6301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -6045,7 +6324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -6068,7 +6347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -6091,7 +6370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -6114,7 +6393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -6137,7 +6416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -6160,7 +6439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -6183,7 +6462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -6206,7 +6485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -6229,7 +6508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -6252,7 +6531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -6275,7 +6554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -6298,7 +6577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -6321,7 +6600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -6344,7 +6623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -6367,7 +6646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -6390,7 +6669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -6413,7 +6692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -6436,7 +6715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -6459,7 +6738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -6482,7 +6761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -6505,7 +6784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -6528,7 +6807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -6551,7 +6830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -6574,7 +6853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -6597,7 +6876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -6620,7 +6899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -6643,7 +6922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -6666,7 +6945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -6689,7 +6968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -6712,7 +6991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -6735,7 +7014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -6758,7 +7037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -6781,7 +7060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -6804,7 +7083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -6827,7 +7106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -6850,7 +7129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -6873,7 +7152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -6896,7 +7175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -6919,7 +7198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -6942,7 +7221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -6965,7 +7244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -6988,7 +7267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -7011,7 +7290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -7034,7 +7313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -7057,7 +7336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -7080,7 +7359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -7103,7 +7382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -7126,7 +7405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -7149,7 +7428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -7172,7 +7451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -7195,7 +7474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -7218,7 +7497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -7241,7 +7520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -7264,7 +7543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -7287,7 +7566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -7310,7 +7589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -7333,7 +7612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -7356,7 +7635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -7379,7 +7658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -7402,7 +7681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -7425,7 +7704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -7448,7 +7727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -7471,7 +7750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -7494,7 +7773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -7517,7 +7796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -7540,7 +7819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -7563,7 +7842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -7586,7 +7865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -7609,7 +7888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -7632,7 +7911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -7655,7 +7934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -7678,7 +7957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -7701,7 +7980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -7724,7 +8003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -7747,7 +8026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -7770,7 +8049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -7793,7 +8072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -7816,7 +8095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -7839,7 +8118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -7862,7 +8141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -7885,7 +8164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -7908,7 +8187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -7931,7 +8210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -7954,7 +8233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -7977,7 +8256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -8000,7 +8279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -8023,7 +8302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -8046,7 +8325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -8069,7 +8348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -8092,7 +8371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -8115,7 +8394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -8138,7 +8417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -8161,7 +8440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -8184,7 +8463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -8207,7 +8486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -8230,7 +8509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -8253,7 +8532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -8276,7 +8555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -8299,7 +8578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -8322,7 +8601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -8345,7 +8624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -8368,7 +8647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -8388,236 +8667,6 @@
         <v>363</v>
       </c>
       <c r="G313" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>7</v>
-      </c>
-      <c r="B314" t="s">
-        <v>8</v>
-      </c>
-      <c r="C314" t="s">
-        <v>146</v>
-      </c>
-      <c r="D314" t="s">
-        <v>10</v>
-      </c>
-      <c r="E314" t="s">
-        <v>11</v>
-      </c>
-      <c r="F314" t="s">
-        <v>364</v>
-      </c>
-      <c r="G314" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>7</v>
-      </c>
-      <c r="B315" t="s">
-        <v>8</v>
-      </c>
-      <c r="C315" t="s">
-        <v>252</v>
-      </c>
-      <c r="D315" t="s">
-        <v>10</v>
-      </c>
-      <c r="E315" t="s">
-        <v>11</v>
-      </c>
-      <c r="F315" t="s">
-        <v>365</v>
-      </c>
-      <c r="G315" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>7</v>
-      </c>
-      <c r="B316" t="s">
-        <v>8</v>
-      </c>
-      <c r="C316" t="s">
-        <v>366</v>
-      </c>
-      <c r="D316" t="s">
-        <v>10</v>
-      </c>
-      <c r="E316" t="s">
-        <v>11</v>
-      </c>
-      <c r="F316" t="s">
-        <v>367</v>
-      </c>
-      <c r="G316" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>7</v>
-      </c>
-      <c r="B317" t="s">
-        <v>8</v>
-      </c>
-      <c r="C317" t="s">
-        <v>366</v>
-      </c>
-      <c r="D317" t="s">
-        <v>10</v>
-      </c>
-      <c r="E317" t="s">
-        <v>11</v>
-      </c>
-      <c r="F317" t="s">
-        <v>368</v>
-      </c>
-      <c r="G317" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>7</v>
-      </c>
-      <c r="B318" t="s">
-        <v>8</v>
-      </c>
-      <c r="C318" t="s">
-        <v>366</v>
-      </c>
-      <c r="D318" t="s">
-        <v>10</v>
-      </c>
-      <c r="E318" t="s">
-        <v>11</v>
-      </c>
-      <c r="F318" t="s">
-        <v>369</v>
-      </c>
-      <c r="G318" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>7</v>
-      </c>
-      <c r="B319" t="s">
-        <v>8</v>
-      </c>
-      <c r="C319" t="s">
-        <v>366</v>
-      </c>
-      <c r="D319" t="s">
-        <v>10</v>
-      </c>
-      <c r="E319" t="s">
-        <v>11</v>
-      </c>
-      <c r="F319" t="s">
-        <v>370</v>
-      </c>
-      <c r="G319" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>7</v>
-      </c>
-      <c r="B320" t="s">
-        <v>8</v>
-      </c>
-      <c r="C320" t="s">
-        <v>366</v>
-      </c>
-      <c r="D320" t="s">
-        <v>10</v>
-      </c>
-      <c r="E320" t="s">
-        <v>11</v>
-      </c>
-      <c r="F320" t="s">
-        <v>371</v>
-      </c>
-      <c r="G320" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>7</v>
-      </c>
-      <c r="B321" t="s">
-        <v>8</v>
-      </c>
-      <c r="C321" t="s">
-        <v>372</v>
-      </c>
-      <c r="D321" t="s">
-        <v>10</v>
-      </c>
-      <c r="E321" t="s">
-        <v>11</v>
-      </c>
-      <c r="F321" t="s">
-        <v>373</v>
-      </c>
-      <c r="G321" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>7</v>
-      </c>
-      <c r="B322" t="s">
-        <v>8</v>
-      </c>
-      <c r="C322" t="s">
-        <v>169</v>
-      </c>
-      <c r="D322" t="s">
-        <v>10</v>
-      </c>
-      <c r="E322" t="s">
-        <v>11</v>
-      </c>
-      <c r="F322" t="s">
-        <v>374</v>
-      </c>
-      <c r="G322" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>7</v>
-      </c>
-      <c r="B323" t="s">
-        <v>8</v>
-      </c>
-      <c r="C323" t="s">
-        <v>375</v>
-      </c>
-      <c r="D323" t="s">
-        <v>10</v>
-      </c>
-      <c r="E323" t="s">
-        <v>11</v>
-      </c>
-      <c r="F323" t="s">
-        <v>376</v>
-      </c>
-      <c r="G323" t="s">
         <v>13</v>
       </c>
     </row>
